--- a/src/test/java/com/pack/testData/EmployeeAvailability.xlsx
+++ b/src/test/java/com/pack/testData/EmployeeAvailability.xlsx
@@ -262,6 +262,111 @@
   </si>
   <si>
     <t>//ul[@role='tree']/li[1]/ul/li[1]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>PartnerSelectorURL</t>
+  </si>
+  <si>
+    <t>PartnerCode</t>
+  </si>
+  <si>
+    <t>UserLoginID</t>
+  </si>
+  <si>
+    <t>UserPassword</t>
+  </si>
+  <si>
+    <t>DataBaseModel</t>
+  </si>
+  <si>
+    <t>DatabaseName</t>
+  </si>
+  <si>
+    <t>PropertyName</t>
+  </si>
+  <si>
+    <t>DataBaseModel1</t>
+  </si>
+  <si>
+    <t>https://qa-partnerselector.unifocus.com/</t>
+  </si>
+  <si>
+    <t>masterqa</t>
+  </si>
+  <si>
+    <t>tmobmas1</t>
+  </si>
+  <si>
+    <t>Q@testing123</t>
+  </si>
+  <si>
+    <t>RMS Modern</t>
+  </si>
+  <si>
+    <t>QA Butterscotch Master</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>qa107</t>
+  </si>
+  <si>
+    <t>QA Butterscotch 107</t>
+  </si>
+  <si>
+    <t>Doral Golf Resort and Spa</t>
+  </si>
+  <si>
+    <t>Cantrell, Clio</t>
+  </si>
+  <si>
+    <t>Buckner, Yoshi</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>Battle, Ava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//ul[@role='tree']/li[1]/ul/li[3]/ul/li[1]/span[2]/span[1]
+</t>
+  </si>
+  <si>
+    <t>Doyle, Vivien</t>
+  </si>
+  <si>
+    <t>//ul[@role='tree']/li[1]/ul/li[1]/ul/li[5]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>Britt, Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//ul[@role='tree']/li[1]/ul[1]/li[1]/ul[1]/li[4]/span[2]/span[1]
+</t>
+  </si>
+  <si>
+    <t>Date Range</t>
+  </si>
+  <si>
+    <t>4/16/22 - 4/29/22</t>
+  </si>
+  <si>
+    <t>8/16/21 - 8/22/21 *</t>
+  </si>
+  <si>
+    <t>4/18/22 - 4/24/22</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//ul[@role='tree']/li[1]/ul[1]/li[2]/ul[1]/li[1]/span[2]/span[1]
+</t>
   </si>
 </sst>
 </file>
@@ -336,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -348,6 +453,9 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,730 +773,967 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="H1">
-      <selection activeCell="O3" sqref="O3" activeCellId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="V1">
+      <selection activeCell="W14" sqref="W14" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6328" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" width="12.5703" customWidth="1"/>
-    <col min="14" max="14" width="12.5703" customWidth="1"/>
-    <col min="15" max="15" width="50.0898" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" width="14.7266" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" width="7.08984" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6328" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="11.1797" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" width="10.8164" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" width="12.7266" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" width="13.9062" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" width="20.6328" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" width="21.8164" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" width="14.9062" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6328" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" width="12.5703" customWidth="1"/>
+    <col min="22" max="22" width="12.5703" customWidth="1"/>
+    <col min="23" max="23" width="50.0898" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" width="17.1797" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" width="14.7266" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" width="7.08984" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="1">
         <v>585213</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="X2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Z2" s="1">
         <v>585213</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>69</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="1">
+        <v>976352</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>69</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>976352</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>976537</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="1">
+        <v>987675</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>976537</v>
-      </c>
-      <c r="R4" s="2" t="s">
+      <c r="W4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>987675</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AK4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="1">
         <v>585278</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="X5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Z5" s="1">
         <v>585278</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AK5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>585211</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="1">
+        <v>784</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>585211</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="W6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>227</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AK6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>635677</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="1">
+        <v>118</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>635677</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="W7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>118</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="AH7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AI7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AK7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="1">
         <v>987816</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="X8" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Z8" s="1">
         <v>987816</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="AG8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="9">
+      <c r="X9" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" display="koshika@gmail.com" r:id="rId1"/>
+    <hyperlink ref="F3" display="narvate@gmail.com" r:id="rId2"/>
+    <hyperlink ref="F4" display="kattera@gmail.com" r:id="rId3"/>
+    <hyperlink ref="F5" display="koshika@gmail.com" r:id="rId4"/>
+    <hyperlink ref="F6" display="narvate@gmail.com" r:id="rId5"/>
+    <hyperlink ref="F7" display="kattera@gmail.com" r:id="rId6"/>
+    <hyperlink ref="F8" display="koshika@gmail.com" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>